--- a/ControlCambios/07_Pruebas/Pruebas_002.xlsx
+++ b/ControlCambios/07_Pruebas/Pruebas_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romar\Documents\GitHub\EnSo_ControlCambios_gr1.2\ControlCambios\07_Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07470174-70F0-425B-9FE5-A154646F43E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0152AAD9-E9D7-4F19-B5B4-0E68F8C65AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76D02679-E598-4CD7-BD3A-2F54FDE5D7B6}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>ID del empleado</t>
   </si>
   <si>
-    <t xml:space="preserve">[ID del empleado] </t>
-  </si>
-  <si>
     <t>Resultados de Pruebas</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>No sucedieron.</t>
+  </si>
+  <si>
+    <t>RME_241202</t>
   </si>
 </sst>
 </file>
@@ -783,25 +783,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,110 +849,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -936,23 +885,74 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,7 +1272,7 @@
   <dimension ref="D3:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1300,18 +1300,18 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" hidden="1" thickBot="1">
       <c r="D6" s="7"/>
@@ -1324,8 +1324,8 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
@@ -1334,15 +1334,15 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="4:11">
@@ -1361,40 +1361,40 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="G10" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="4:11">
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="4:11">
       <c r="D12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="4:11">
@@ -1408,15 +1408,15 @@
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="4:11">
-      <c r="D14" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="D14" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="4:11">
@@ -1428,11 +1428,11 @@
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="4:11">
-      <c r="D16" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -1450,27 +1450,27 @@
       <c r="K17" s="17"/>
     </row>
     <row r="18" spans="4:11" ht="15" customHeight="1">
-      <c r="D18" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
+      <c r="D18" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="4:11">
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="4:11">
@@ -1484,27 +1484,27 @@
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="4:11" ht="15" customHeight="1">
-      <c r="D21" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="D21" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="4:11">
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="4:11">
@@ -1518,11 +1518,11 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -1540,27 +1540,27 @@
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="4:11" ht="15" customHeight="1">
-      <c r="D26" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="D26" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="4:11">
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="89"/>
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="4:11">
@@ -1575,26 +1575,26 @@
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="27"/>
-      <c r="E29" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="E29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="4:11">
       <c r="D30" s="27"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="4:11">
@@ -1608,11 +1608,11 @@
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -1630,27 +1630,27 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="4:11" ht="15" customHeight="1">
-      <c r="D34" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
+      <c r="D34" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="4:11">
       <c r="D35" s="27"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
       <c r="K35" s="17"/>
     </row>
     <row r="36" spans="4:11">
@@ -1664,27 +1664,27 @@
       <c r="K36" s="17"/>
     </row>
     <row r="37" spans="4:11" ht="15" customHeight="1">
-      <c r="D37" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="D37" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="4:11">
       <c r="D38" s="27"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="4:11">
@@ -1707,7 +1707,7 @@
     </row>
     <row r="41" spans="4:11">
       <c r="D41" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
@@ -1728,15 +1728,15 @@
     <row r="43" spans="4:11">
       <c r="D43" s="25"/>
       <c r="E43" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="41"/>
-      <c r="G43" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="G43" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94"/>
       <c r="K43" s="17"/>
     </row>
     <row r="44" spans="4:11">
@@ -1750,13 +1750,13 @@
     <row r="45" spans="4:11">
       <c r="D45" s="25"/>
       <c r="E45" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="94"/>
       <c r="K45" s="17"/>
     </row>
     <row r="46" spans="4:11">
@@ -1770,14 +1770,14 @@
     </row>
     <row r="47" spans="4:11">
       <c r="D47" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="94"/>
       <c r="K47" s="17"/>
     </row>
     <row r="48" spans="4:11">
@@ -1800,34 +1800,31 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="48"/>
+      <c r="K50" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:J45"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:J35"/>
     <mergeCell ref="D16:F16"/>
@@ -1841,16 +1838,19 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:J30"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" xr:uid="{F3CCD807-2718-498D-8A1C-3AC40B10E0BB}"/>
